--- a/Example for Script Tracking_v1.2.xlsx
+++ b/Example for Script Tracking_v1.2.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgarbacz\Desktop\PS\ESM Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcmaster/Documents/GitHub/ESM-Logs-Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28540" windowHeight="17780"/>
   </bookViews>
   <sheets>
     <sheet name="Example for Script Tracking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>INFO   Correlation rule stats analysis:</t>
   </si>
@@ -114,9 +122,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Ruleset</t>
-  </si>
-  <si>
     <t>47-4000116</t>
   </si>
   <si>
@@ -132,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,7 +690,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -699,6 +704,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -766,18 +772,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-87FE-407C-BE72-442929D5E36B}"/>
             </c:ext>
@@ -814,18 +820,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-87FE-407C-BE72-442929D5E36B}"/>
             </c:ext>
@@ -862,18 +868,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-87FE-407C-BE72-442929D5E36B}"/>
             </c:ext>
@@ -910,18 +916,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-87FE-407C-BE72-442929D5E36B}"/>
             </c:ext>
@@ -937,9 +943,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476520552"/>
-        <c:axId val="476397712"/>
-        <c:extLst>
+        <c:axId val="1874168544"/>
+        <c:axId val="1874170864"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -947,7 +953,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Example for Script Tracking'!$P$11</c15:sqref>
@@ -974,7 +980,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Example for Script Tracking'!$Q$11:$S$11</c15:sqref>
@@ -985,18 +991,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>1.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>2.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>3.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-87FE-407C-BE72-442929D5E36B}"/>
                   </c:ext>
@@ -1007,7 +1013,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476520552"/>
+        <c:axId val="1874168544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476397712"/>
+        <c:crossAx val="1874170864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476397712"/>
+        <c:axId val="1874170864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476520552"/>
+        <c:crossAx val="1874168544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,6 +1128,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1189,7 +1196,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1203,6 +1210,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1259,24 +1267,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20DD-41C5-86E5-1A7E71E3EDEE}"/>
             </c:ext>
@@ -1302,24 +1310,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-20DD-41C5-86E5-1A7E71E3EDEE}"/>
             </c:ext>
@@ -1345,24 +1353,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-20DD-41C5-86E5-1A7E71E3EDEE}"/>
             </c:ext>
@@ -1378,11 +1386,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="481078832"/>
-        <c:axId val="481076536"/>
+        <c:axId val="1873515488"/>
+        <c:axId val="1873517808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481078832"/>
+        <c:axId val="1873515488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481076536"/>
+        <c:crossAx val="1873517808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1432,7 +1440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481076536"/>
+        <c:axId val="1873517808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481078832"/>
+        <c:crossAx val="1873515488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,6 +1505,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1564,7 +1573,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1603,6 +1612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,8 +1711,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1747,21 +1758,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1169956</c:v>
+                  <c:v>1.169956E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29011690</c:v>
+                  <c:v>2.901169E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18452063</c:v>
+                  <c:v>1.8452063E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25431003</c:v>
+                  <c:v>2.5431003E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DE27-4943-BEEB-7C58043C6576}"/>
             </c:ext>
@@ -1829,8 +1840,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1875,21 +1887,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8143004</c:v>
+                  <c:v>8.143004E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23796863</c:v>
+                  <c:v>2.3796863E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12433978</c:v>
+                  <c:v>1.2433978E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE27-4943-BEEB-7C58043C6576}"/>
             </c:ext>
@@ -1957,8 +1969,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2003,21 +2016,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12744</c:v>
+                  <c:v>12744.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11848</c:v>
+                  <c:v>11848.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10907</c:v>
+                  <c:v>10907.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DE27-4943-BEEB-7C58043C6576}"/>
             </c:ext>
@@ -2085,8 +2098,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2131,21 +2145,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1629</c:v>
+                  <c:v>1629.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248138</c:v>
+                  <c:v>248138.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160651</c:v>
+                  <c:v>160651.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121189</c:v>
+                  <c:v>121189.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DE27-4943-BEEB-7C58043C6576}"/>
             </c:ext>
@@ -2162,12 +2176,12 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="476520552"/>
-        <c:axId val="476397712"/>
-        <c:extLst/>
+        <c:axId val="1876510064"/>
+        <c:axId val="1876512384"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476520552"/>
+        <c:axId val="1876510064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476397712"/>
+        <c:crossAx val="1876512384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476397712"/>
+        <c:axId val="1876512384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476520552"/>
+        <c:crossAx val="1876510064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,6 +2270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3992,7 +4007,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D0B438-3309-4106-BEA8-FA6305223F57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74D0B438-3309-4106-BEA8-FA6305223F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4043,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D348D5-4E27-4EC4-B045-CD58EE86328F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38D348D5-4E27-4EC4-B045-CD58EE86328F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4079,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC7EC93-2C77-43A2-8F01-A50C5FC525CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBC7EC93-2C77-43A2-8F01-A50C5FC525CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,30 +4401,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="155.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="155.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4443,7 +4458,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4457,7 +4472,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4497,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4552,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4569,7 +4584,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4586,7 +4601,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4626,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4675,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4692,37 +4707,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4771,7 +4786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4806,7 +4821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4826,12 +4841,12 @@
         <v>98377</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4839,7 +4854,7 @@
         <v>160651</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>160651</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4873,52 +4888,49 @@
         <v>160651</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -4935,7 +4947,7 @@
         <v>25431003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -4969,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>7</v>
       </c>
